--- a/Pinout.xlsx
+++ b/Pinout.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\parke\Documents\GitHub\Proto-Pi-Board\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16117B46-DE81-437E-8708-9736A3239D4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4BF3164-9E1C-44B1-B6FD-E962831DF89A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="38700" windowHeight="15285" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12230" yWindow="400" windowWidth="28710" windowHeight="21860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="New Text Document" sheetId="1" r:id="rId1"/>
     <sheet name="Pinout" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -496,7 +495,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -631,8 +630,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -812,8 +819,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -928,6 +941,96 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -973,14 +1076,26 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1039,6 +1154,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>336551</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>6351</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>113370</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBF6F135-D8DB-431D-9D63-1F3226C3DE09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1974851" y="628650"/>
+          <a:ext cx="6375400" cy="4393270"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1340,21 +1504,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H210"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82:C107"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A135" sqref="A135"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="53.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1377,7 +1541,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1403,7 +1567,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1420,7 +1584,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1437,7 +1601,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -1454,7 +1618,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1471,7 +1635,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B14">
         <v>2</v>
       </c>
@@ -1485,7 +1649,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -1502,7 +1666,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B17">
         <v>2</v>
       </c>
@@ -1516,7 +1680,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -1533,7 +1697,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B20">
         <v>2</v>
       </c>
@@ -1547,7 +1711,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -1564,7 +1728,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B23">
         <v>2</v>
       </c>
@@ -1578,7 +1742,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B24">
         <v>3</v>
       </c>
@@ -1592,7 +1756,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B25">
         <v>4</v>
       </c>
@@ -1606,7 +1770,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B26">
         <v>5</v>
       </c>
@@ -1620,7 +1784,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B27">
         <v>6</v>
       </c>
@@ -1634,7 +1798,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B28">
         <v>7</v>
       </c>
@@ -1648,7 +1812,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B29">
         <v>8</v>
       </c>
@@ -1662,7 +1826,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B30">
         <v>9</v>
       </c>
@@ -1676,7 +1840,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B31">
         <v>10</v>
       </c>
@@ -1690,7 +1854,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B32">
         <v>11</v>
       </c>
@@ -1704,7 +1868,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B33">
         <v>12</v>
       </c>
@@ -1718,7 +1882,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B34">
         <v>13</v>
       </c>
@@ -1732,7 +1896,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B35">
         <v>14</v>
       </c>
@@ -1746,7 +1910,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B36">
         <v>15</v>
       </c>
@@ -1760,7 +1924,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B37">
         <v>16</v>
       </c>
@@ -1774,7 +1938,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B38">
         <v>17</v>
       </c>
@@ -1788,7 +1952,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B39">
         <v>18</v>
       </c>
@@ -1802,7 +1966,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B40">
         <v>19</v>
       </c>
@@ -1816,7 +1980,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B41">
         <v>20</v>
       </c>
@@ -1830,7 +1994,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B42">
         <v>21</v>
       </c>
@@ -1844,7 +2008,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B43">
         <v>22</v>
       </c>
@@ -1858,7 +2022,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B44">
         <v>23</v>
       </c>
@@ -1872,7 +2036,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B45">
         <v>24</v>
       </c>
@@ -1886,7 +2050,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B46">
         <v>25</v>
       </c>
@@ -1900,7 +2064,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>55</v>
       </c>
@@ -1917,7 +2081,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B49">
         <v>2</v>
       </c>
@@ -1931,7 +2095,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B50">
         <v>3</v>
       </c>
@@ -1945,7 +2109,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B51">
         <v>4</v>
       </c>
@@ -1959,7 +2123,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
         <v>57</v>
       </c>
@@ -1979,7 +2143,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B53" t="s">
         <v>62</v>
       </c>
@@ -1999,7 +2163,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>63</v>
       </c>
@@ -2016,7 +2180,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B56">
         <v>2</v>
       </c>
@@ -2030,7 +2194,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B57">
         <v>3</v>
       </c>
@@ -2044,7 +2208,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B58">
         <v>4</v>
       </c>
@@ -2058,7 +2222,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B59" t="s">
         <v>57</v>
       </c>
@@ -2078,7 +2242,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B60" t="s">
         <v>62</v>
       </c>
@@ -2098,7 +2262,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>64</v>
       </c>
@@ -2115,7 +2279,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B63" t="s">
         <v>67</v>
       </c>
@@ -2129,7 +2293,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>69</v>
       </c>
@@ -2146,7 +2310,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B66" t="s">
         <v>67</v>
       </c>
@@ -2160,7 +2324,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>71</v>
       </c>
@@ -2177,7 +2341,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B69" t="s">
         <v>67</v>
       </c>
@@ -2191,7 +2355,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>74</v>
       </c>
@@ -2208,7 +2372,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B72">
         <v>2</v>
       </c>
@@ -2222,7 +2386,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B73">
         <v>3</v>
       </c>
@@ -2236,7 +2400,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B74">
         <v>4</v>
       </c>
@@ -2250,7 +2414,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B75">
         <v>5</v>
       </c>
@@ -2270,7 +2434,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B76">
         <v>6</v>
       </c>
@@ -2284,7 +2448,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B77">
         <v>7</v>
       </c>
@@ -2298,7 +2462,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B78">
         <v>8</v>
       </c>
@@ -2312,7 +2476,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B79">
         <v>9</v>
       </c>
@@ -2326,7 +2490,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B80">
         <v>10</v>
       </c>
@@ -2340,7 +2504,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>103</v>
       </c>
@@ -2357,7 +2521,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>104</v>
       </c>
@@ -2374,7 +2538,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>105</v>
       </c>
@@ -2391,7 +2555,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B114">
         <v>2</v>
       </c>
@@ -2405,7 +2569,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>106</v>
       </c>
@@ -2422,7 +2586,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B117">
         <v>2</v>
       </c>
@@ -2436,7 +2600,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>107</v>
       </c>
@@ -2453,7 +2617,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B120">
         <v>2</v>
       </c>
@@ -2467,7 +2631,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>108</v>
       </c>
@@ -2484,7 +2648,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B123">
         <v>2</v>
       </c>
@@ -2498,7 +2662,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>109</v>
       </c>
@@ -2515,7 +2679,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B126">
         <v>2</v>
       </c>
@@ -2529,7 +2693,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B127">
         <v>3</v>
       </c>
@@ -2543,7 +2707,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B128">
         <v>4</v>
       </c>
@@ -2557,7 +2721,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B129">
         <v>5</v>
       </c>
@@ -2571,7 +2735,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B130">
         <v>6</v>
       </c>
@@ -2585,7 +2749,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B131">
         <v>7</v>
       </c>
@@ -2599,7 +2763,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B132">
         <v>8</v>
       </c>
@@ -2613,7 +2777,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B133">
         <v>9</v>
       </c>
@@ -2627,7 +2791,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B134">
         <v>10</v>
       </c>
@@ -2641,7 +2805,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B135">
         <v>11</v>
       </c>
@@ -2655,7 +2819,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B136">
         <v>12</v>
       </c>
@@ -2669,7 +2833,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B137">
         <v>13</v>
       </c>
@@ -2683,7 +2847,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B138">
         <v>14</v>
       </c>
@@ -2697,7 +2861,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B139">
         <v>15</v>
       </c>
@@ -2711,7 +2875,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B140">
         <v>16</v>
       </c>
@@ -2725,7 +2889,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B141">
         <v>17</v>
       </c>
@@ -2739,7 +2903,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B142">
         <v>18</v>
       </c>
@@ -2753,7 +2917,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B143">
         <v>19</v>
       </c>
@@ -2767,7 +2931,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B144">
         <v>20</v>
       </c>
@@ -2781,7 +2945,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B145">
         <v>21</v>
       </c>
@@ -2795,7 +2959,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B146">
         <v>22</v>
       </c>
@@ -2809,7 +2973,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B147">
         <v>23</v>
       </c>
@@ -2823,7 +2987,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B148">
         <v>24</v>
       </c>
@@ -2837,7 +3001,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B149">
         <v>25</v>
       </c>
@@ -2851,7 +3015,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B150">
         <v>26</v>
       </c>
@@ -2865,7 +3029,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B151">
         <v>27</v>
       </c>
@@ -2879,7 +3043,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B152">
         <v>28</v>
       </c>
@@ -2893,7 +3057,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="153" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B153">
         <v>29</v>
       </c>
@@ -2907,7 +3071,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="154" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B154">
         <v>30</v>
       </c>
@@ -2921,7 +3085,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B155">
         <v>31</v>
       </c>
@@ -2935,7 +3099,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B156">
         <v>32</v>
       </c>
@@ -2949,7 +3113,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B157">
         <v>33</v>
       </c>
@@ -2963,7 +3127,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="158" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B158">
         <v>34</v>
       </c>
@@ -2977,7 +3141,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B159">
         <v>35</v>
       </c>
@@ -2991,7 +3155,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B160">
         <v>36</v>
       </c>
@@ -3005,7 +3169,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B161">
         <v>37</v>
       </c>
@@ -3019,7 +3183,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B162">
         <v>38</v>
       </c>
@@ -3033,7 +3197,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B163">
         <v>39</v>
       </c>
@@ -3047,7 +3211,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B164">
         <v>40</v>
       </c>
@@ -3061,7 +3225,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>114</v>
       </c>
@@ -3078,7 +3242,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B167">
         <v>2</v>
       </c>
@@ -3092,7 +3256,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B168">
         <v>3</v>
       </c>
@@ -3106,7 +3270,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B169">
         <v>4</v>
       </c>
@@ -3120,7 +3284,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B170">
         <v>5</v>
       </c>
@@ -3134,7 +3298,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B171">
         <v>6</v>
       </c>
@@ -3148,7 +3312,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B172">
         <v>7</v>
       </c>
@@ -3162,7 +3326,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B173">
         <v>8</v>
       </c>
@@ -3176,7 +3340,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B174">
         <v>9</v>
       </c>
@@ -3190,7 +3354,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B175">
         <v>10</v>
       </c>
@@ -3204,7 +3368,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B176">
         <v>11</v>
       </c>
@@ -3218,7 +3382,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="177" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B177">
         <v>12</v>
       </c>
@@ -3238,7 +3402,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="178" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B178">
         <v>13</v>
       </c>
@@ -3258,7 +3422,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="179" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B179">
         <v>14</v>
       </c>
@@ -3272,7 +3436,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="180" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B180">
         <v>15</v>
       </c>
@@ -3292,7 +3456,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="181" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B181">
         <v>16</v>
       </c>
@@ -3312,7 +3476,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="182" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B182">
         <v>17</v>
       </c>
@@ -3326,7 +3490,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="183" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B183">
         <v>18</v>
       </c>
@@ -3340,7 +3504,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="184" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B184">
         <v>19</v>
       </c>
@@ -3360,7 +3524,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="185" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B185">
         <v>20</v>
       </c>
@@ -3380,7 +3544,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="186" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B186">
         <v>21</v>
       </c>
@@ -3400,7 +3564,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="187" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B187">
         <v>22</v>
       </c>
@@ -3420,7 +3584,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="188" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B188">
         <v>23</v>
       </c>
@@ -3434,7 +3598,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="189" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B189">
         <v>24</v>
       </c>
@@ -3448,7 +3612,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="190" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B190">
         <v>25</v>
       </c>
@@ -3462,7 +3626,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="191" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B191">
         <v>26</v>
       </c>
@@ -3476,7 +3640,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="192" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B192">
         <v>27</v>
       </c>
@@ -3490,7 +3654,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B193">
         <v>28</v>
       </c>
@@ -3504,7 +3668,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>139</v>
       </c>
@@ -3521,7 +3685,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B196">
         <v>2</v>
       </c>
@@ -3535,7 +3699,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B197">
         <v>3</v>
       </c>
@@ -3549,7 +3713,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B198">
         <v>4</v>
       </c>
@@ -3563,7 +3727,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B199">
         <v>5</v>
       </c>
@@ -3577,7 +3741,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B200">
         <v>6</v>
       </c>
@@ -3591,7 +3755,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B201">
         <v>7</v>
       </c>
@@ -3611,7 +3775,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B202">
         <v>8</v>
       </c>
@@ -3631,7 +3795,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B203">
         <v>9</v>
       </c>
@@ -3645,7 +3809,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B204">
         <v>10</v>
       </c>
@@ -3659,7 +3823,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B205">
         <v>11</v>
       </c>
@@ -3673,7 +3837,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B206">
         <v>12</v>
       </c>
@@ -3687,7 +3851,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B207">
         <v>13</v>
       </c>
@@ -3701,7 +3865,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B208">
         <v>14</v>
       </c>
@@ -3715,7 +3879,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="209" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B209">
         <v>15</v>
       </c>
@@ -3729,7 +3893,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="210" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B210">
         <v>16</v>
       </c>
@@ -3750,231 +3914,238 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="B1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="S25" sqref="S25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.26953125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:3" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="C3" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C4" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C5" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C6" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C7" s="6" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C8" s="6" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B9" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C9" s="6" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B10" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C10" s="6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B11" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C11" s="6" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B12" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="C12" s="6" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B13" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C13" s="6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B14" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C14" s="6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B15" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="C15" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B16" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="C16" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B17" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+      <c r="C17" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B18" s="5">
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="C18" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B19" s="5">
         <v>17</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="C19" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B20" s="5">
         <v>18</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="C20" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B21" s="5">
         <v>19</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="C21" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B22" s="5">
         <v>20</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="C22" s="6" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B23" s="5">
         <v>21</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="C23" s="6" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B24" s="5">
         <v>22</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="C24" s="6" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B25" s="5">
         <v>23</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="C25" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
-        <v>24</v>
-      </c>
-      <c r="B25" s="3" t="s">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B26" s="5">
+        <v>24</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B27" s="5">
         <v>25</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="C27" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
-        <v>26</v>
-      </c>
-      <c r="B27" s="3" t="s">
+    <row r="28" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="7">
+        <v>26</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Pinout.xlsx
+++ b/Pinout.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\parke\Documents\GitHub\Proto-Pi-Board\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4BF3164-9E1C-44B1-B6FD-E962831DF89A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDBCA355-D272-4052-A4AF-66A069BF8F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12230" yWindow="400" windowWidth="28710" windowHeight="21860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3630" yWindow="2130" windowWidth="28640" windowHeight="15590" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="New Text Document" sheetId="1" r:id="rId1"/>
+    <sheet name="New Text Document" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="Pinout" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
@@ -3917,7 +3917,7 @@
   <dimension ref="B1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S25" sqref="S25"/>
+      <selection activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
